--- a/INPUT/POMMIER_webmarchand TVI - info produits - template.xlsx
+++ b/INPUT/POMMIER_webmarchand TVI - info produits - template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TVI\WEB\NOUVEAU WEB TVI\FOURNISSEURS\TEMPLATE FOURNISSEUR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects2\MDD\INPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94815283-FCBD-4879-9B24-136E71ACB5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AD3079-516B-4012-9BA0-0EE5C3223C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CROSS" sheetId="1" r:id="rId1"/>
@@ -536,52 +536,13 @@
     <t>S.ROLL H1 - Butoir acier galvanisé à absorption d’énergie par ressorts, axe zingué. Horizontal 1 rouleau.</t>
   </si>
   <si>
-    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/04_PROTECTION_LATERALE\3120282_3120284AN_ece1042_3d.jpg</t>
-  </si>
-  <si>
-    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE\2905917_3D.jpg</t>
-  </si>
-  <si>
-    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE\2905019_022_023_024_027_3D.jpg</t>
-  </si>
-  <si>
-    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/uploads\3543500_porteOutil_0009.jpg</t>
-  </si>
-  <si>
     <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/16_ARRIMAGE_PROTECTION_SECURITE/3655090_def.jpg</t>
   </si>
   <si>
-    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE\2905922_3D.jpg</t>
-  </si>
-  <si>
-    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/04_PROTECTION_LATERALE\3110423GA_3d.jpg</t>
-  </si>
-  <si>
-    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/04_PROTECTION_LATERALE\3120286_V2.jpg</t>
-  </si>
-  <si>
-    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/18_EQUIPEMENT_CAISSE\4104688_3D.jpg</t>
-  </si>
-  <si>
-    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE\2905918_3d.jpg</t>
-  </si>
-  <si>
     <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/N/38_05130.jpg</t>
   </si>
   <si>
-    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/uploads\2143203.jpg</t>
-  </si>
-  <si>
     <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/G/27_44410.jpg</t>
-  </si>
-  <si>
-    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE\2905740_741_3D.jpg</t>
-  </si>
-  <si>
-    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE\2905140_3d.jpg</t>
-  </si>
-  <si>
-    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/07_BUTOIR_BUTEE\3950806_3D.jpg</t>
   </si>
   <si>
     <t>https://www.pommier.eu/sites/default/files/pim/thumbs_800_800/02_ANTI_ENCASTREMENT/2909437_3d.jpg</t>
@@ -808,6 +769,45 @@
   </si>
   <si>
     <t>Porte-documents rectangulaire en composite gris</t>
+  </si>
+  <si>
+    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/uploads/2143203.jpg</t>
+  </si>
+  <si>
+    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE/2905019_022_023_024_027_3D.jpg</t>
+  </si>
+  <si>
+    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE/2905140_3d.jpg</t>
+  </si>
+  <si>
+    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE/2905740_741_3D.jpg</t>
+  </si>
+  <si>
+    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE/2905917_3D.jpg</t>
+  </si>
+  <si>
+    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE/2905918_3d.jpg</t>
+  </si>
+  <si>
+    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE/2905922_3D.jpg</t>
+  </si>
+  <si>
+    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/04_PROTECTION_LATERALE/3110423GA_3d.jpg</t>
+  </si>
+  <si>
+    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/04_PROTECTION_LATERALE/3120282_3120284AN_ece1042_3d.jpg</t>
+  </si>
+  <si>
+    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/04_PROTECTION_LATERALE/3120286_V2.jpg</t>
+  </si>
+  <si>
+    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/uploads/3543500_porteOutil_0009.jpg</t>
+  </si>
+  <si>
+    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/07_BUTOIR_BUTEE/3950806_3D.jpg</t>
+  </si>
+  <si>
+    <t>https://pommier.eu/sites/default/files/pim/thumbs_800_800/18_EQUIPEMENT_CAISSE/4104688_3D.jpg</t>
   </si>
 </sst>
 </file>
@@ -1745,127 +1745,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DJ291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="133" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="87.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="116.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="87.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="116.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="115" max="16384" width="14.7109375" style="1"/>
+    <col min="33" max="33" width="20.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="255.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="115" max="16384" width="14.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>134</v>
       </c>
@@ -2229,37 +2229,37 @@
         <v>142</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="P2" s="1">
         <v>163</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="R2" s="1">
         <v>108</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="T2" s="1">
         <v>706</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>135</v>
       </c>
@@ -2279,37 +2279,37 @@
         <v>142</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="O3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="P3" s="1">
         <v>3250</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="R3" s="1">
         <v>5.2</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="T3" s="1">
         <v>100</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN3" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>117</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>153</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -2341,43 +2341,43 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="P4" s="1">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="R4" s="1">
         <v>375</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="V4" s="1">
         <v>35.5</v>
       </c>
       <c r="W4" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="X4" s="1">
         <v>3.5</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN4" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>119</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>153</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -2409,43 +2409,43 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="P5" s="1">
         <v>31</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="R5" s="1">
         <v>375</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="V5" s="1">
         <v>35.5</v>
       </c>
       <c r="W5" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="X5" s="1">
         <v>3.5</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN5" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>123</v>
       </c>
@@ -2468,48 +2468,48 @@
         <v>153</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="K6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="P6" s="1">
         <v>31</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="R6" s="1">
         <v>375</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="V6" s="1">
         <v>35.5</v>
       </c>
       <c r="W6" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="X6" s="1">
         <v>3.5</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN6" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>132</v>
       </c>
@@ -2532,46 +2532,46 @@
         <v>153</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="P7" s="1">
         <v>31</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="R7" s="1">
         <v>375</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="V7" s="1">
         <v>35.5</v>
       </c>
       <c r="W7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="X7" s="1">
         <v>3.5</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN7" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>139</v>
       </c>
@@ -2594,68 +2594,68 @@
         <v>149</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="P8" s="1">
         <v>190</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="R8" s="1">
         <v>135</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="T8" s="1">
         <v>1000</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="V8" s="1">
         <v>72.5</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="X8" s="1">
         <v>76</v>
       </c>
       <c r="Y8" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="Z8" s="1">
         <v>38</v>
       </c>
       <c r="AA8" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AB8" s="1">
         <v>52</v>
       </c>
       <c r="AC8" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AD8" s="1">
         <v>26</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN8" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>136</v>
       </c>
@@ -2678,34 +2678,34 @@
         <v>164</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="P9" s="1">
         <v>110</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="R9" s="1">
         <v>46</v>
       </c>
       <c r="S9" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="T9" s="1">
         <v>25</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN9" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>116</v>
       </c>
@@ -2725,10 +2725,10 @@
         <v>142</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -2737,61 +2737,61 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="P10" s="1">
         <v>180</v>
       </c>
       <c r="Q10" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="R10" s="1">
         <v>72</v>
       </c>
       <c r="S10" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="T10" s="1">
         <v>36</v>
       </c>
       <c r="U10" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="V10" s="1">
         <v>125</v>
       </c>
       <c r="W10" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="X10" s="1">
         <v>1000</v>
       </c>
       <c r="Y10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="Z10" s="1">
         <v>90</v>
       </c>
       <c r="AA10" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AB10" s="1">
         <v>51</v>
       </c>
       <c r="AC10" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AD10" s="1">
         <v>26</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN10" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>130</v>
       </c>
@@ -2814,40 +2814,40 @@
         <v>156</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="O11" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="P11" s="1">
         <v>120</v>
       </c>
       <c r="Q11" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="R11" s="1">
         <v>50</v>
       </c>
       <c r="S11" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="T11" s="1">
         <v>30</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="V11" s="1">
         <v>80</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN11" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>125</v>
       </c>
@@ -2870,72 +2870,72 @@
         <v>156</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="K12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="P12" s="1">
         <v>200</v>
       </c>
       <c r="Q12" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="R12" s="1">
         <v>81</v>
       </c>
       <c r="S12" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="T12" s="1">
         <v>42</v>
       </c>
       <c r="U12" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="V12" s="1">
         <v>91</v>
       </c>
       <c r="W12" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="X12" s="1">
         <v>1000</v>
       </c>
       <c r="Y12" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="Z12" s="1">
         <v>34</v>
       </c>
       <c r="AA12" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AB12" s="1">
         <v>44</v>
       </c>
       <c r="AC12" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AD12" s="1">
         <v>13</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="AF12" s="1">
         <v>90</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN12" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:114" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:114" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>137</v>
       </c>
@@ -2958,46 +2958,46 @@
         <v>165</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="O13" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="P13" s="1">
         <v>160</v>
       </c>
       <c r="Q13" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="V13" s="1">
         <v>491</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="X13" s="1">
         <v>996</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN13" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>131</v>
       </c>
@@ -3020,13 +3020,13 @@
         <v>147</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN14" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>138</v>
       </c>
@@ -3053,13 +3053,13 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="AM15" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN15" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>124</v>
       </c>
@@ -3087,13 +3087,13 @@
       <c r="K16" s="10"/>
       <c r="N16" s="10"/>
       <c r="AM16" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN16" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>145</v>
       </c>
@@ -3113,93 +3113,93 @@
         <v>142</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="K17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="P17" s="1">
         <v>200</v>
       </c>
       <c r="Q17" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="R17" s="1">
         <v>103</v>
       </c>
       <c r="S17" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="T17" s="1">
         <v>50</v>
       </c>
       <c r="U17" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="V17" s="1">
         <v>160</v>
       </c>
       <c r="W17" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="X17" s="1">
         <v>1000</v>
       </c>
       <c r="Y17" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="Z17" s="1">
         <v>140</v>
       </c>
       <c r="AA17" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AB17" s="1">
         <v>96</v>
       </c>
       <c r="AC17" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AD17" s="1">
         <v>40</v>
       </c>
       <c r="AE17" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="AK17" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="AM17" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN17" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>146</v>
       </c>
@@ -3219,93 +3219,93 @@
         <v>142</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="K18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="P18" s="1">
         <v>120</v>
       </c>
       <c r="Q18" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="R18" s="1">
         <v>90</v>
       </c>
       <c r="S18" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="T18" s="1">
         <v>30</v>
       </c>
       <c r="U18" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="V18" s="1">
         <v>95</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="X18" s="1">
         <v>1000</v>
       </c>
       <c r="Y18" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="Z18" s="1">
         <v>36</v>
       </c>
       <c r="AA18" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AB18" s="1">
         <v>87</v>
       </c>
       <c r="AC18" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AD18" s="1">
         <v>24</v>
       </c>
       <c r="AE18" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="AK18" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="AM18" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN18" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>143</v>
       </c>
@@ -3325,95 +3325,95 @@
         <v>142</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="P19" s="1">
         <v>200</v>
       </c>
       <c r="Q19" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="R19" s="1">
         <v>103</v>
       </c>
       <c r="S19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="T19" s="1">
         <v>50</v>
       </c>
       <c r="U19" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="V19" s="1">
         <v>160</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="X19" s="1">
         <v>1000</v>
       </c>
       <c r="Y19" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="Z19" s="1">
         <v>140</v>
       </c>
       <c r="AA19" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="AB19" s="1">
         <v>96</v>
       </c>
       <c r="AC19" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AD19" s="1">
         <v>40</v>
       </c>
       <c r="AE19" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="AK19" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="AM19" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN19" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>126</v>
       </c>
@@ -3433,27 +3433,27 @@
         <v>142</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="K20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="P20" s="1">
         <v>720</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN20" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>129</v>
       </c>
@@ -3476,34 +3476,34 @@
         <v>151</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="O21" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="P21" s="1">
         <v>3000</v>
       </c>
       <c r="Q21" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="S21" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="AM21" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN21" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>115</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>151</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -3535,31 +3535,31 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="P22" s="1">
         <v>3200</v>
       </c>
       <c r="Q22" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="S22" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="AM22" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN22" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>118</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>151</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -3591,31 +3591,31 @@
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="P23" s="1">
         <v>5000</v>
       </c>
       <c r="Q23" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="S23" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="AM23" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN23" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>120</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>151</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -3647,31 +3647,31 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="P24" s="1">
         <v>5000</v>
       </c>
       <c r="Q24" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="S24" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="AM24" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN24" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:114" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:114" ht="116" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>127</v>
       </c>
@@ -3694,30 +3694,30 @@
         <v>158</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="K25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="Q25" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="AM25" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN25" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>121</v>
       </c>
@@ -3740,36 +3740,36 @@
         <v>154</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="K26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="Q26" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="R26" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S26" t="s">
+        <v>211</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM26" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="S26" t="s">
-        <v>224</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM26" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="AN26" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>122</v>
       </c>
@@ -3792,36 +3792,36 @@
         <v>155</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="P27" s="1">
         <v>3050</v>
       </c>
       <c r="Q27" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="R27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S27" t="s">
+        <v>211</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM27" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="S27" t="s">
-        <v>224</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM27" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="AN27" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>133</v>
       </c>
@@ -3841,37 +3841,37 @@
         <v>142</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="P28" s="1">
         <v>344</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="R28" s="1">
         <v>231</v>
       </c>
       <c r="S28" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="AM28" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN28" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:114" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:114" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>114</v>
       </c>
@@ -3891,49 +3891,49 @@
         <v>142</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="H29" s="15" t="s">
-        <v>182</v>
-      </c>
       <c r="O29" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="P29" s="1">
         <v>230</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="R29" s="1">
         <v>117.5</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="T29" s="1">
         <v>94</v>
       </c>
       <c r="U29" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="V29" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="W29" t="s">
+        <v>211</v>
+      </c>
+      <c r="X29" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM29" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="W29" t="s">
-        <v>224</v>
-      </c>
-      <c r="X29" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="AM29" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="AN29" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:114" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:114" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>128</v>
       </c>
@@ -3953,49 +3953,49 @@
         <v>142</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="O30" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="P30" s="16" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="R30" s="1">
         <v>140</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="T30" s="1">
         <v>120</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="V30" s="1">
         <v>240</v>
       </c>
       <c r="W30" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="AM30" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AN30" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -4111,15 +4111,15 @@
       <c r="DI31" s="13"/>
       <c r="DJ31" s="13"/>
     </row>
-    <row r="32" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:114" x14ac:dyDescent="0.35">
       <c r="I32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="56" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -4127,7 +4127,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -4135,31 +4135,31 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
     </row>
-    <row r="62" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K62" s="3"/>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K63" s="3"/>
       <c r="N63" s="3"/>
     </row>
-    <row r="66" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K66" s="4"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K68" s="4"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K69" s="4"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="72" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -4167,7 +4167,7 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
     </row>
-    <row r="73" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -4175,284 +4175,284 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
     </row>
-    <row r="80" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K80" s="6"/>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K81" s="6"/>
       <c r="N81" s="6"/>
     </row>
-    <row r="83" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J83" s="7"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
     </row>
-    <row r="85" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
     </row>
-    <row r="90" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J90" s="8"/>
       <c r="M90" s="8"/>
     </row>
-    <row r="91" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J91" s="8"/>
       <c r="M91" s="8"/>
     </row>
-    <row r="92" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J92" s="8"/>
       <c r="M92" s="8"/>
     </row>
-    <row r="93" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J93" s="8"/>
       <c r="M93" s="8"/>
     </row>
-    <row r="97" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J97" s="8"/>
       <c r="M97" s="8"/>
     </row>
-    <row r="98" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J98" s="8"/>
       <c r="M98" s="8"/>
     </row>
-    <row r="99" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J99" s="8"/>
       <c r="M99" s="8"/>
     </row>
-    <row r="100" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K100" s="4"/>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K101" s="4"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K102" s="4"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K103" s="4"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K104" s="4"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K105" s="4"/>
       <c r="N105" s="4"/>
     </row>
-    <row r="118" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I118" s="3"/>
       <c r="K118" s="2"/>
       <c r="L118" s="3"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I119" s="3"/>
       <c r="K119" s="2"/>
       <c r="L119" s="3"/>
       <c r="N119" s="2"/>
     </row>
-    <row r="130" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K130" s="2"/>
       <c r="N130" s="2"/>
     </row>
-    <row r="131" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K131" s="2"/>
       <c r="N131" s="2"/>
     </row>
-    <row r="134" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I134" s="3"/>
       <c r="K134" s="2"/>
       <c r="L134" s="3"/>
       <c r="N134" s="2"/>
     </row>
-    <row r="135" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I135" s="3"/>
       <c r="K135" s="2"/>
       <c r="L135" s="3"/>
       <c r="N135" s="2"/>
     </row>
-    <row r="136" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K136" s="2"/>
       <c r="N136" s="2"/>
     </row>
-    <row r="137" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K137" s="2"/>
       <c r="N137" s="2"/>
     </row>
-    <row r="138" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K138" s="2"/>
       <c r="N138" s="2"/>
     </row>
-    <row r="139" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K139" s="2"/>
       <c r="N139" s="2"/>
     </row>
-    <row r="140" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K140" s="2"/>
       <c r="N140" s="2"/>
     </row>
-    <row r="141" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K141" s="2"/>
       <c r="N141" s="2"/>
     </row>
-    <row r="150" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I150" s="3"/>
       <c r="K150" s="2"/>
       <c r="L150" s="3"/>
       <c r="N150" s="2"/>
     </row>
-    <row r="166" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I166" s="3"/>
       <c r="K166" s="2"/>
       <c r="L166" s="3"/>
       <c r="N166" s="2"/>
     </row>
-    <row r="167" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I167" s="3"/>
       <c r="K167" s="2"/>
       <c r="L167" s="3"/>
       <c r="N167" s="2"/>
     </row>
-    <row r="178" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I178" s="3"/>
       <c r="K178" s="2"/>
       <c r="L178" s="3"/>
       <c r="N178" s="2"/>
     </row>
-    <row r="179" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I179" s="3"/>
       <c r="K179" s="2"/>
       <c r="L179" s="3"/>
       <c r="N179" s="2"/>
     </row>
-    <row r="184" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K184" s="2"/>
       <c r="N184" s="2"/>
     </row>
-    <row r="185" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K185" s="2"/>
       <c r="N185" s="2"/>
     </row>
-    <row r="188" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K188" s="2"/>
       <c r="N188" s="2"/>
     </row>
-    <row r="189" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K189" s="2"/>
       <c r="N189" s="2"/>
     </row>
-    <row r="226" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K226" s="2"/>
       <c r="N226" s="2"/>
     </row>
-    <row r="244" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K244" s="2"/>
       <c r="N244" s="2"/>
     </row>
-    <row r="245" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K245" s="2"/>
       <c r="N245" s="2"/>
     </row>
-    <row r="248" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K248" s="2"/>
       <c r="N248" s="2"/>
     </row>
-    <row r="249" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K249" s="2"/>
       <c r="N249" s="2"/>
     </row>
-    <row r="254" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I254" s="3"/>
       <c r="K254" s="2"/>
       <c r="L254" s="3"/>
       <c r="N254" s="2"/>
     </row>
-    <row r="255" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I255" s="3"/>
       <c r="K255" s="2"/>
       <c r="L255" s="3"/>
       <c r="N255" s="2"/>
     </row>
-    <row r="268" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K268" s="2"/>
       <c r="N268" s="2"/>
     </row>
-    <row r="269" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K269" s="2"/>
       <c r="N269" s="2"/>
     </row>
-    <row r="277" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I277" s="3"/>
       <c r="K277" s="2"/>
       <c r="L277" s="3"/>
       <c r="N277" s="2"/>
     </row>
-    <row r="278" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I278" s="3"/>
       <c r="K278" s="2"/>
       <c r="L278" s="3"/>
       <c r="N278" s="2"/>
     </row>
-    <row r="279" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I279" s="3"/>
       <c r="K279" s="2"/>
       <c r="L279" s="3"/>
       <c r="N279" s="2"/>
     </row>
-    <row r="280" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I280" s="3"/>
       <c r="K280" s="2"/>
       <c r="L280" s="3"/>
       <c r="N280" s="2"/>
     </row>
-    <row r="281" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I281" s="3"/>
       <c r="K281" s="2"/>
       <c r="L281" s="3"/>
       <c r="N281" s="2"/>
     </row>
-    <row r="291" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I291" s="3"/>
       <c r="L291" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H22" r:id="rId1" xr:uid="{26C08C3E-12B7-4FDF-A9EE-0288609E79DC}"/>
-    <hyperlink ref="H10" r:id="rId2" xr:uid="{E13686D9-771C-411F-9084-D649D0B52402}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{3E146C74-C58F-4BA8-9122-B58DFA88DFFB}"/>
-    <hyperlink ref="H23" r:id="rId4" xr:uid="{5F60060D-B93B-4C4F-B9A9-66576D68CAAF}"/>
-    <hyperlink ref="H5" r:id="rId5" xr:uid="{FF26880B-7CC5-4B2E-888A-44EA17084EDD}"/>
-    <hyperlink ref="H24" r:id="rId6" xr:uid="{71A74197-C82C-4696-868B-9BFA8C64B3D5}"/>
-    <hyperlink ref="H26" r:id="rId7" xr:uid="{F0A288C8-B559-452D-97BE-0295A15F338E}"/>
+    <hyperlink ref="H22" r:id="rId1" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/04_PROTECTION_LATERALE\3120282_3120284AN_ece1042_3d.jpg" xr:uid="{26C08C3E-12B7-4FDF-A9EE-0288609E79DC}"/>
+    <hyperlink ref="H10" r:id="rId2" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE\2905917_3D.jpg" xr:uid="{E13686D9-771C-411F-9084-D649D0B52402}"/>
+    <hyperlink ref="H4" r:id="rId3" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE\2905019_022_023_024_027_3D.jpg" xr:uid="{3E146C74-C58F-4BA8-9122-B58DFA88DFFB}"/>
+    <hyperlink ref="H23" r:id="rId4" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/04_PROTECTION_LATERALE\3120282_3120284AN_ece1042_3d.jpg" xr:uid="{5F60060D-B93B-4C4F-B9A9-66576D68CAAF}"/>
+    <hyperlink ref="H5" r:id="rId5" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE\2905019_022_023_024_027_3D.jpg" xr:uid="{FF26880B-7CC5-4B2E-888A-44EA17084EDD}"/>
+    <hyperlink ref="H24" r:id="rId6" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/04_PROTECTION_LATERALE\3120282_3120284AN_ece1042_3d.jpg" xr:uid="{71A74197-C82C-4696-868B-9BFA8C64B3D5}"/>
+    <hyperlink ref="H26" r:id="rId7" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/uploads\3543500_porteOutil_0009.jpg" xr:uid="{F0A288C8-B559-452D-97BE-0295A15F338E}"/>
     <hyperlink ref="H27" r:id="rId8" xr:uid="{880BC705-5B1C-4065-97BB-2E98612C222F}"/>
-    <hyperlink ref="H6" r:id="rId9" xr:uid="{E5F2C0B6-B00A-4FCA-8B7E-F6795D828180}"/>
-    <hyperlink ref="H12" r:id="rId10" xr:uid="{353D8387-EFDE-43A1-9DF4-0140BFF2017A}"/>
-    <hyperlink ref="H20" r:id="rId11" xr:uid="{BCCFC083-4669-47DF-A42E-53A8BB6AD32E}"/>
-    <hyperlink ref="H25" r:id="rId12" xr:uid="{706A18FF-3678-42F3-871D-728FDC3354EA}"/>
-    <hyperlink ref="H30" r:id="rId13" xr:uid="{3A9F8D72-D436-43FB-B5F5-DB427BCBE3F6}"/>
-    <hyperlink ref="H21" r:id="rId14" xr:uid="{FDE5C3C1-CBEB-4383-9515-6D0066501FD6}"/>
-    <hyperlink ref="H11" r:id="rId15" xr:uid="{DF429433-B692-43B8-92B0-33B7ADDC3C56}"/>
-    <hyperlink ref="H7" r:id="rId16" xr:uid="{B73FF82F-A459-4C74-B11D-74606A2D70F0}"/>
+    <hyperlink ref="H6" r:id="rId9" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE\2905019_022_023_024_027_3D.jpg" xr:uid="{E5F2C0B6-B00A-4FCA-8B7E-F6795D828180}"/>
+    <hyperlink ref="H12" r:id="rId10" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE\2905922_3D.jpg" xr:uid="{353D8387-EFDE-43A1-9DF4-0140BFF2017A}"/>
+    <hyperlink ref="H20" r:id="rId11" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/04_PROTECTION_LATERALE\3110423GA_3d.jpg" xr:uid="{BCCFC083-4669-47DF-A42E-53A8BB6AD32E}"/>
+    <hyperlink ref="H25" r:id="rId12" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/04_PROTECTION_LATERALE\3120286_V2.jpg" xr:uid="{706A18FF-3678-42F3-871D-728FDC3354EA}"/>
+    <hyperlink ref="H30" r:id="rId13" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/18_EQUIPEMENT_CAISSE\4104688_3D.jpg" xr:uid="{3A9F8D72-D436-43FB-B5F5-DB427BCBE3F6}"/>
+    <hyperlink ref="H21" r:id="rId14" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/04_PROTECTION_LATERALE\3120282_3120284AN_ece1042_3d.jpg" xr:uid="{FDE5C3C1-CBEB-4383-9515-6D0066501FD6}"/>
+    <hyperlink ref="H11" r:id="rId15" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE\2905918_3d.jpg" xr:uid="{DF429433-B692-43B8-92B0-33B7ADDC3C56}"/>
+    <hyperlink ref="H7" r:id="rId16" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE\2905019_022_023_024_027_3D.jpg" xr:uid="{B73FF82F-A459-4C74-B11D-74606A2D70F0}"/>
     <hyperlink ref="H28" r:id="rId17" xr:uid="{7C208C92-49F1-489E-A1A1-812717C9BFAC}"/>
-    <hyperlink ref="H2" r:id="rId18" xr:uid="{E54354D8-AACA-41E6-86BD-DE22CBB35EC0}"/>
+    <hyperlink ref="H2" r:id="rId18" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/uploads\2143203.jpg" xr:uid="{E54354D8-AACA-41E6-86BD-DE22CBB35EC0}"/>
     <hyperlink ref="H3" r:id="rId19" xr:uid="{E7D04519-9C70-4E1F-9FBC-43B0909D8024}"/>
-    <hyperlink ref="H9" r:id="rId20" xr:uid="{E0C86112-20FC-4443-92D0-2F086CABBDAA}"/>
+    <hyperlink ref="H9" r:id="rId20" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE\2905740_741_3D.jpg" xr:uid="{E0C86112-20FC-4443-92D0-2F086CABBDAA}"/>
     <hyperlink ref="H13" r:id="rId21" xr:uid="{512DFED6-E8B1-4F36-94B3-3361B0E67920}"/>
-    <hyperlink ref="H8" r:id="rId22" xr:uid="{8242997B-1152-4B9E-918E-9561669FA2CC}"/>
-    <hyperlink ref="H29" r:id="rId23" xr:uid="{C5AF9E7F-97EB-428F-ADD7-53613F0EC286}"/>
+    <hyperlink ref="H8" r:id="rId22" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/01_ATTELAGE\2905140_3d.jpg" xr:uid="{8242997B-1152-4B9E-918E-9561669FA2CC}"/>
+    <hyperlink ref="H29" r:id="rId23" display="https://pommier.eu/sites/default/files/pim/thumbs_800_800/07_BUTOIR_BUTEE\3950806_3D.jpg" xr:uid="{C5AF9E7F-97EB-428F-ADD7-53613F0EC286}"/>
     <hyperlink ref="H19" r:id="rId24" xr:uid="{8378D9BF-1F03-4A37-AD0E-BEC7B31BF118}"/>
     <hyperlink ref="H17" r:id="rId25" xr:uid="{CB6036F9-A257-4EA8-A10E-C3C30E8F4B66}"/>
     <hyperlink ref="H18" r:id="rId26" xr:uid="{F6013760-DF9A-4532-94A3-C15714AB3B8A}"/>
